--- a/AIDA_Interface_brief_ver/DB/PRZ_all_para_6.xlsx
+++ b/AIDA_Interface_brief_ver/DB/PRZ_all_para_6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CRONI_2\CRONI_Project_ver2\AIDA_Interface_brief_ver\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Code\CRONI_Project_Proffesor\AIDA_Interface_brief_ver\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801C3B2B-11D3-4748-87EB-AA5D8ED8DE6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A61389-F6FA-41A1-89F9-3486EA21D3C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9495" yWindow="7590" windowWidth="14475" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="210">
-  <si>
-    <t>PPRZ</t>
-  </si>
-  <si>
-    <t>ZPRZNO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="207">
   <si>
     <t>PLETIN</t>
   </si>
@@ -641,9 +635,6 @@
   </si>
   <si>
     <t>COLD-LEG #3 SAFETY INJECTION FLOW.</t>
-  </si>
-  <si>
-    <t>Description</t>
   </si>
   <si>
     <t>WAUXSP</t>
@@ -1019,493 +1010,493 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D336"/>
+  <dimension ref="A1:D335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106:A107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1">
+        <v>0.99990933773923074</v>
+      </c>
+      <c r="C1">
+        <v>0.50775624714606582</v>
+      </c>
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
       <c r="B2">
-        <v>0.99990933773923074</v>
+        <v>0.88216230168789767</v>
       </c>
       <c r="C2">
-        <v>0.50775624714606582</v>
+        <v>0.29377089814373719</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0.88216230168789767</v>
+        <v>0.88150403866610239</v>
       </c>
       <c r="C3">
-        <v>0.29377089814373719</v>
+        <v>0.2991564521915176</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>0.88150403866610239</v>
+        <v>0.88104691948333547</v>
       </c>
       <c r="C4">
-        <v>0.2991564521915176</v>
+        <v>0.28751475948315508</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>0.88104691948333547</v>
+        <v>0.88065173560372023</v>
       </c>
       <c r="C5">
-        <v>0.28751475948315508</v>
+        <v>0.29168470119188727</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0.88065173560372023</v>
+        <v>0.88065171483238647</v>
       </c>
       <c r="C6">
-        <v>0.29168470119188727</v>
+        <v>0.29168470639376942</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.88065171483238647</v>
+        <v>0.8805461981860303</v>
       </c>
       <c r="C7">
-        <v>0.29168470639376942</v>
+        <v>0.29784973130844988</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0.8805461981860303</v>
+        <v>0.88052397187735931</v>
       </c>
       <c r="C8">
-        <v>0.29784973130844988</v>
+        <v>0.29781776551670042</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>0.88052397187735931</v>
+        <v>0.8805016249502059</v>
       </c>
       <c r="C9">
-        <v>0.29781776551670042</v>
+        <v>0.29042738495085479</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>0.8805016249502059</v>
+        <v>0.88006200322771</v>
       </c>
       <c r="C10">
-        <v>0.29042738495085479</v>
+        <v>0.29702211981416737</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>0.88006200322771</v>
+        <v>0.87979636489475321</v>
       </c>
       <c r="C11">
-        <v>0.29702211981416737</v>
+        <v>0.30499306517984243</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.87908020387651742</v>
+      </c>
+      <c r="C12">
+        <v>0.29538437406477869</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>0.87979636489475321</v>
-      </c>
-      <c r="C12">
-        <v>0.30499306517984243</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B13" s="3">
+        <v>0.87883365662102009</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.2902817700331336</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>0.87908020387651742</v>
-      </c>
-      <c r="C13">
-        <v>0.29538437406477869</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B14">
+        <v>0.87875054180037526</v>
+      </c>
+      <c r="C14">
+        <v>0.30341188340279152</v>
+      </c>
+      <c r="D14" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.87883365662102009</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.2902817700331336</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>0.87875054180037526</v>
+        <v>0.87872081582043604</v>
       </c>
       <c r="C15">
-        <v>0.30341188340279152</v>
+        <v>0.30377654617505412</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>0.87872081582043604</v>
+        <v>0.87857718287739028</v>
       </c>
       <c r="C16">
-        <v>0.30377654617505412</v>
+        <v>0.3031935609356764</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>0.87857718287739028</v>
+        <v>0.8777575885493708</v>
       </c>
       <c r="C17">
-        <v>0.3031935609356764</v>
+        <v>0.27800683048815261</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>0.8777575885493708</v>
+        <v>0.87770659615718316</v>
       </c>
       <c r="C18">
-        <v>0.27800683048815261</v>
+        <v>0.30146033166455077</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>0.87770659615718316</v>
+        <v>0.8775671231854415</v>
       </c>
       <c r="C19">
-        <v>0.30146033166455077</v>
+        <v>0.29118683162675862</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>0.8775671231854415</v>
+        <v>0.87711178650678667</v>
       </c>
       <c r="C20">
-        <v>0.29118683162675862</v>
+        <v>0.28989235668156771</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>0.87711178650678667</v>
+        <v>0.8759860523991424</v>
       </c>
       <c r="C21">
-        <v>0.28989235668156771</v>
+        <v>0.29089403158270422</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>0.8759860523991424</v>
+        <v>0.87543630654012794</v>
       </c>
       <c r="C22">
-        <v>0.29089403158270422</v>
+        <v>0.27479535709949221</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>0.87543630654012794</v>
+        <v>0.87505044346845806</v>
       </c>
       <c r="C23">
-        <v>0.27479535709949221</v>
+        <v>0.28580567281550012</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>0.87505044346845806</v>
+        <v>0.87487931890178561</v>
       </c>
       <c r="C24">
-        <v>0.28580567281550012</v>
+        <v>0.28520741830546509</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.87455843964589008</v>
+      </c>
+      <c r="C25">
+        <v>0.27421222526163619</v>
+      </c>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
-        <v>0.87487931890178561</v>
-      </c>
-      <c r="C25">
-        <v>0.28520741830546509</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B26">
+        <v>0.87395659296494776</v>
+      </c>
+      <c r="C26">
+        <v>0.31789190634596709</v>
+      </c>
+      <c r="D26" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
-        <v>0.87455843964589008</v>
-      </c>
-      <c r="C26">
-        <v>0.27421222526163619</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="B27" s="3">
+        <v>0.87228243207110179</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.27300116314639628</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A27" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
-        <v>0.87395659296494776</v>
-      </c>
-      <c r="C27">
-        <v>0.31789190634596709</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="B28">
+        <v>0.87188932060549074</v>
+      </c>
+      <c r="C28">
+        <v>0.31485059699550239</v>
+      </c>
+      <c r="D28" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="3">
-        <v>0.87228243207110179</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0.27300116314639628</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="B29">
+        <v>0.87104517781224222</v>
+      </c>
+      <c r="C29">
+        <v>0.31224481622777361</v>
+      </c>
+      <c r="D29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
-        <v>0.87188932060549074</v>
-      </c>
-      <c r="C29">
-        <v>0.31485059699550239</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="B30">
+        <v>0.87061928554402246</v>
+      </c>
+      <c r="C30">
+        <v>0.31441625310870258</v>
+      </c>
+      <c r="D30" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>0.87104517781224222</v>
-      </c>
-      <c r="C30">
-        <v>0.31224481622777361</v>
-      </c>
-      <c r="D30" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>0.87061928554402246</v>
+        <v>0.86998118121753465</v>
       </c>
       <c r="C31">
-        <v>0.31441625310870258</v>
+        <v>0.30972559977582598</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>0.86998118121753465</v>
+        <v>0.86642652660776864</v>
       </c>
       <c r="C32">
-        <v>0.30972559977582598</v>
+        <v>0.26711575869412241</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>0.86642652660776864</v>
+        <v>0.85167716320270237</v>
       </c>
       <c r="C33">
-        <v>0.26711575869412241</v>
+        <v>0.24060875735080289</v>
       </c>
       <c r="D33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>0.85167716320270237</v>
+        <v>0.85167473459463194</v>
       </c>
       <c r="C34">
-        <v>0.24060875735080289</v>
+        <v>0.24060456247090559</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>0.85167473459463194</v>
@@ -1514,26 +1505,26 @@
         <v>0.24060456247090559</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>0.85167473459463194</v>
+        <v>0.85167468502880295</v>
       </c>
       <c r="C36">
-        <v>0.24060456247090559</v>
+        <v>0.2406044298255611</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>0.85167468502880295</v>
@@ -1542,26 +1533,26 @@
         <v>0.2406044298255611</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>0.85167468502880295</v>
+        <v>0.85167468501514776</v>
       </c>
       <c r="C38">
-        <v>0.2406044298255611</v>
+        <v>0.24060443196979961</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>0.85167468501514776</v>
@@ -1570,68 +1561,68 @@
         <v>0.24060443196979961</v>
       </c>
       <c r="D39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.85121112599341286</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.31182921704129968</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B40">
-        <v>0.85167468501514776</v>
-      </c>
-      <c r="C40">
-        <v>0.24060443196979961</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="B41">
+        <v>0.85119051803013035</v>
+      </c>
+      <c r="C41">
+        <v>0.31184497372241787</v>
+      </c>
+      <c r="D41" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="3">
-        <v>0.85121112599341286</v>
-      </c>
-      <c r="C41" s="3">
-        <v>0.31182921704129968</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>0.85119051803013035</v>
+        <v>0.85118844745606581</v>
       </c>
       <c r="C42">
-        <v>0.31184497372241787</v>
+        <v>0.31184385778619778</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>0.85118844745606581</v>
+        <v>0.8451338871226054</v>
       </c>
       <c r="C43">
-        <v>0.31184385778619778</v>
+        <v>0.227743628741535</v>
       </c>
       <c r="D43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>0.8451338871226054</v>
@@ -1640,26 +1631,26 @@
         <v>0.227743628741535</v>
       </c>
       <c r="D44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>0.8451338871226054</v>
+        <v>0.84504179364132725</v>
       </c>
       <c r="C45">
-        <v>0.227743628741535</v>
+        <v>0.24286564258986529</v>
       </c>
       <c r="D45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>0.84504179364132725</v>
@@ -1668,12 +1659,12 @@
         <v>0.24286564258986529</v>
       </c>
       <c r="D46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>0.84504179364132725</v>
@@ -1682,54 +1673,54 @@
         <v>0.24286564258986529</v>
       </c>
       <c r="D47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>0.84504179364132725</v>
+        <v>0.84086143243015066</v>
       </c>
       <c r="C48">
-        <v>0.24286564258986529</v>
+        <v>0.22249877314197819</v>
       </c>
       <c r="D48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>0.84086143243015066</v>
+        <v>0.83614401462518972</v>
       </c>
       <c r="C49">
-        <v>0.22249877314197819</v>
+        <v>0.28288198175774731</v>
       </c>
       <c r="D49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>0.83614401462518972</v>
+        <v>0.83217455559051101</v>
       </c>
       <c r="C50">
-        <v>0.28288198175774731</v>
+        <v>0.2080488907052698</v>
       </c>
       <c r="D50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>0.83217455559051101</v>
@@ -1738,26 +1729,26 @@
         <v>0.2080488907052698</v>
       </c>
       <c r="D51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>0.83217455559051101</v>
+        <v>0.83217455487475034</v>
       </c>
       <c r="C52">
-        <v>0.2080488907052698</v>
+        <v>0.20804888608792699</v>
       </c>
       <c r="D52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>0.83217455487475034</v>
@@ -1766,12 +1757,12 @@
         <v>0.20804888608792699</v>
       </c>
       <c r="D53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>0.83217455487475034</v>
@@ -1780,12 +1771,12 @@
         <v>0.20804888608792699</v>
       </c>
       <c r="D54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>0.83217455487475034</v>
@@ -1794,12 +1785,12 @@
         <v>0.20804888608792699</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>0.83217455487475034</v>
@@ -1808,26 +1799,26 @@
         <v>0.20804888608792699</v>
       </c>
       <c r="D56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>0.83217455487475034</v>
+        <v>0.83217454661169654</v>
       </c>
       <c r="C57">
-        <v>0.20804888608792699</v>
+        <v>0.20804902544199719</v>
       </c>
       <c r="D57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>0.83217454661169654</v>
@@ -1836,54 +1827,54 @@
         <v>0.20804902544199719</v>
       </c>
       <c r="D58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>0.83217454661169654</v>
+        <v>0.8273331112668183</v>
       </c>
       <c r="C59">
-        <v>0.20804902544199719</v>
+        <v>0.1304782427416237</v>
       </c>
       <c r="D59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>0.8273331112668183</v>
+        <v>0.82086542237219395</v>
       </c>
       <c r="C60">
-        <v>0.1304782427416237</v>
+        <v>0.1894316319058004</v>
       </c>
       <c r="D60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>0.82086542237219395</v>
+        <v>0.80881271276568811</v>
       </c>
       <c r="C61">
-        <v>0.1894316319058004</v>
+        <v>0.18225024226864869</v>
       </c>
       <c r="D61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>0.80881271276568811</v>
@@ -1892,12 +1883,12 @@
         <v>0.18225024226864869</v>
       </c>
       <c r="D62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>0.80881271276568811</v>
@@ -1906,26 +1897,26 @@
         <v>0.18225024226864869</v>
       </c>
       <c r="D63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>0.80881271276568811</v>
+        <v>0.79976232435262395</v>
       </c>
       <c r="C64">
-        <v>0.18225024226864869</v>
+        <v>0.27950670067291489</v>
       </c>
       <c r="D64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>0.79976232435262395</v>
@@ -1934,12 +1925,12 @@
         <v>0.27950670067291489</v>
       </c>
       <c r="D65" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>0.79976232435262395</v>
@@ -1948,138 +1939,138 @@
         <v>0.27950670067291489</v>
       </c>
       <c r="D66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>0.79976232435262395</v>
+        <v>0.79756996385364176</v>
       </c>
       <c r="C67">
-        <v>0.27950670067291489</v>
+        <v>0.49335065977189452</v>
       </c>
       <c r="D67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>0.79756996385364176</v>
+        <v>0.7908211759935978</v>
       </c>
       <c r="C68">
-        <v>0.49335065977189452</v>
+        <v>0.1412881027518324</v>
       </c>
       <c r="D68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>0.7908211759935978</v>
+        <v>0.79082117599347745</v>
       </c>
       <c r="C69">
-        <v>0.1412881027518324</v>
+        <v>0.1412881027514383</v>
       </c>
       <c r="D69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>0.79082117599347745</v>
+        <v>0.61838653153677858</v>
       </c>
       <c r="C70">
-        <v>0.1412881027514383</v>
+        <v>-8.3893466142543657E-2</v>
       </c>
       <c r="D70" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>0.61838653153677858</v>
+        <v>0.60836332016613959</v>
       </c>
       <c r="C71">
-        <v>-8.3893466142543657E-2</v>
+        <v>-4.9577077209251641E-2</v>
       </c>
       <c r="D71" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>0.60836332016613959</v>
+        <v>0.58255216476545668</v>
       </c>
       <c r="C72">
-        <v>-4.9577077209251641E-2</v>
+        <v>-9.7489745476358899E-2</v>
       </c>
       <c r="D72" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>0.58255216476545668</v>
+        <v>0.58255073317624528</v>
       </c>
       <c r="C73">
-        <v>-9.7489745476358899E-2</v>
+        <v>-9.7491149058915261E-2</v>
       </c>
       <c r="D73" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>0.58255073317624528</v>
+        <v>0.58253235105592605</v>
       </c>
       <c r="C74">
-        <v>-9.7491149058915261E-2</v>
+        <v>-9.7508961539372455E-2</v>
       </c>
       <c r="D74" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75">
-        <v>0.58253235105592605</v>
+        <v>0.57347576362928465</v>
       </c>
       <c r="C75">
-        <v>-9.7508961539372455E-2</v>
+        <v>0.1927822782027778</v>
       </c>
       <c r="D75" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76">
         <v>0.57347576362928465</v>
@@ -2088,12 +2079,12 @@
         <v>0.1927822782027778</v>
       </c>
       <c r="D76" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77">
         <v>0.57347576362928465</v>
@@ -2102,82 +2093,82 @@
         <v>0.1927822782027778</v>
       </c>
       <c r="D77" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78">
-        <v>0.57347576362928465</v>
+        <v>9.6066246422420662E-2</v>
       </c>
       <c r="C78">
-        <v>0.1927822782027778</v>
+        <v>-0.57384816995269261</v>
       </c>
       <c r="D78" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" ht="16.5" customHeight="1">
       <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>2.016442941965256E-2</v>
+      </c>
+      <c r="C79">
+        <v>-0.52132535423432469</v>
+      </c>
+      <c r="D79" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
         <v>79</v>
       </c>
-      <c r="B79">
-        <v>9.6066246422420662E-2</v>
-      </c>
-      <c r="C79">
-        <v>-0.57384816995269261</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="B80">
+        <v>-0.14010535767661239</v>
+      </c>
+      <c r="C80">
+        <v>-0.50151779812138586</v>
+      </c>
+      <c r="D80" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80">
-        <v>2.016442941965256E-2</v>
-      </c>
-      <c r="C80">
-        <v>-0.52132535423432469</v>
-      </c>
-      <c r="D80" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>-0.14010535767661239</v>
+        <v>-0.14010537083847441</v>
       </c>
       <c r="C81">
-        <v>-0.50151779812138586</v>
+        <v>-0.50151780021956904</v>
       </c>
       <c r="D81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>-0.14010537083847441</v>
+        <v>-0.52729847803823271</v>
       </c>
       <c r="C82">
-        <v>-0.50151780021956904</v>
+        <v>-1.8540319846895529E-2</v>
       </c>
       <c r="D82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83">
         <v>-0.52729847803823271</v>
@@ -2186,264 +2177,264 @@
         <v>-1.8540319846895529E-2</v>
       </c>
       <c r="D83" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>-0.58995412725774632</v>
+      </c>
+      <c r="C84">
+        <v>6.0220080980329632E-2</v>
+      </c>
+      <c r="D84" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84">
-        <v>-0.52729847803823271</v>
-      </c>
-      <c r="C84">
-        <v>-1.8540319846895529E-2</v>
-      </c>
-      <c r="D84" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5" customHeight="1">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85">
-        <v>-0.58995412725774632</v>
+        <v>-0.61066311678890595</v>
       </c>
       <c r="C85">
-        <v>6.0220080980329632E-2</v>
+        <v>5.0895467403486043E-2</v>
       </c>
       <c r="D85" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="16.5" customHeight="1">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>-0.61066311678890595</v>
+        <v>-0.62253621073203469</v>
       </c>
       <c r="C86">
-        <v>5.0895467403486043E-2</v>
+        <v>8.3685074260996029E-2</v>
       </c>
       <c r="D86" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="16.5" customHeight="1">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>-0.62253621073203469</v>
+        <v>-0.69255830438040311</v>
       </c>
       <c r="C87">
-        <v>8.3685074260996029E-2</v>
+        <v>-0.14252707158713479</v>
       </c>
       <c r="D87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="16.5" customHeight="1">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88">
-        <v>-0.69255830438040311</v>
+        <v>-0.72776120780129128</v>
       </c>
       <c r="C88">
-        <v>-0.14252707158713479</v>
+        <v>-0.1201174535350223</v>
       </c>
       <c r="D88" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="16.5" customHeight="1">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89">
-        <v>-0.72776120780129128</v>
+        <v>-0.78220246660110515</v>
       </c>
       <c r="C89">
-        <v>-0.1201174535350223</v>
+        <v>-0.17681659721168541</v>
       </c>
       <c r="D89" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="16.5" customHeight="1">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>-0.78220246660110515</v>
+        <v>-0.7937772059184669</v>
       </c>
       <c r="C90">
-        <v>-0.17681659721168541</v>
+        <v>-0.17432532495063871</v>
       </c>
       <c r="D90" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="16.5" customHeight="1">
       <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>-0.80169789909064948</v>
+      </c>
+      <c r="C91">
+        <v>-0.18109701134408179</v>
+      </c>
+      <c r="D91" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
         <v>91</v>
       </c>
-      <c r="B91">
-        <v>-0.7937772059184669</v>
-      </c>
-      <c r="C91">
-        <v>-0.17432532495063871</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="B92">
+        <v>-0.8016979133586789</v>
+      </c>
+      <c r="C92">
+        <v>-0.18109697280269951</v>
+      </c>
+      <c r="D92" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92">
-        <v>-0.80169789909064948</v>
-      </c>
-      <c r="C92">
-        <v>-0.18109701134408179</v>
-      </c>
-      <c r="D92" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93">
-        <v>-0.8016979133586789</v>
+        <v>-0.82897821724886755</v>
       </c>
       <c r="C93">
-        <v>-0.18109697280269951</v>
+        <v>-0.27330889777369788</v>
       </c>
       <c r="D93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94">
-        <v>-0.82897821724886755</v>
+        <v>-0.85233155992363685</v>
       </c>
       <c r="C94">
-        <v>-0.27330889777369788</v>
+        <v>-0.290859944720124</v>
       </c>
       <c r="D94" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95">
-        <v>-0.85233155992363685</v>
+        <v>-0.8542358919508567</v>
       </c>
       <c r="C95">
-        <v>-0.290859944720124</v>
+        <v>-0.295966262806304</v>
       </c>
       <c r="D95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>-0.8542358919508567</v>
+        <v>-0.8695211646714992</v>
       </c>
       <c r="C96">
-        <v>-0.295966262806304</v>
+        <v>-0.27636202029916151</v>
       </c>
       <c r="D96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97">
-        <v>-0.8695211646714992</v>
+        <v>-0.87299925183622551</v>
       </c>
       <c r="C97">
-        <v>-0.27636202029916151</v>
+        <v>-0.28965331888612561</v>
       </c>
       <c r="D97" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98">
-        <v>-0.87299925183622551</v>
+        <v>-0.87362774787833686</v>
       </c>
       <c r="C98">
-        <v>-0.28965331888612561</v>
+        <v>-0.28929668286770549</v>
       </c>
       <c r="D98" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99">
-        <v>-0.87362774787833686</v>
+        <v>-0.95848230262126544</v>
       </c>
       <c r="C99">
-        <v>-0.28929668286770549</v>
+        <v>-0.40510189434442267</v>
       </c>
       <c r="D99" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100">
-        <v>-0.95848230262126544</v>
+        <v>-0.95867979036086914</v>
       </c>
       <c r="C100">
-        <v>-0.40510189434442267</v>
+        <v>-0.40539052647041629</v>
       </c>
       <c r="D100" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101">
-        <v>-0.95867979036086914</v>
+        <v>-0.95867979051867513</v>
       </c>
       <c r="C101">
-        <v>-0.40539052647041629</v>
+        <v>-0.40539052690737021</v>
       </c>
       <c r="D101" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102">
         <v>-0.95867979051867513</v>
@@ -2452,12 +2443,12 @@
         <v>-0.40539052690737021</v>
       </c>
       <c r="D102" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103">
         <v>-0.95867979051867513</v>
@@ -2466,107 +2457,94 @@
         <v>-0.40539052690737021</v>
       </c>
       <c r="D103" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
-        <v>104</v>
-      </c>
       <c r="B104">
-        <v>-0.95867979051867513</v>
+        <v>0.63216766294964921</v>
       </c>
       <c r="C104">
-        <v>-0.40539052690737021</v>
-      </c>
-      <c r="D104" t="s">
+        <v>0.50242009171668467</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B105">
-        <v>0.63216766294964921</v>
-      </c>
-      <c r="C105">
-        <v>0.50242009171668467</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
+    <row r="109" spans="1:4" ht="16.5" customHeight="1"/>
     <row r="110" spans="1:4" ht="16.5" customHeight="1"/>
     <row r="111" spans="1:4" ht="16.5" customHeight="1"/>
     <row r="112" spans="1:4" ht="16.5" customHeight="1"/>
     <row r="113" ht="16.5" customHeight="1"/>
-    <row r="114" ht="16.5" customHeight="1"/>
+    <row r="118" ht="16.5" customHeight="1"/>
     <row r="119" ht="16.5" customHeight="1"/>
     <row r="120" ht="16.5" customHeight="1"/>
     <row r="121" ht="16.5" customHeight="1"/>
-    <row r="122" ht="16.5" customHeight="1"/>
-    <row r="132" ht="16.5" customHeight="1"/>
-    <row r="141" ht="16.5" customHeight="1"/>
+    <row r="131" ht="16.5" customHeight="1"/>
+    <row r="140" ht="16.5" customHeight="1"/>
+    <row r="155" ht="16.5" customHeight="1"/>
     <row r="156" ht="16.5" customHeight="1"/>
-    <row r="157" ht="16.5" customHeight="1"/>
-    <row r="179" ht="16.5" customHeight="1"/>
-    <row r="184" ht="16.5" customHeight="1"/>
+    <row r="178" ht="16.5" customHeight="1"/>
+    <row r="183" ht="16.5" customHeight="1"/>
+    <row r="186" ht="16.5" customHeight="1"/>
     <row r="187" ht="16.5" customHeight="1"/>
     <row r="188" ht="16.5" customHeight="1"/>
     <row r="189" ht="16.5" customHeight="1"/>
     <row r="190" ht="16.5" customHeight="1"/>
     <row r="191" ht="16.5" customHeight="1"/>
     <row r="192" ht="16.5" customHeight="1"/>
-    <row r="193" ht="16.5" customHeight="1"/>
-    <row r="197" ht="16.5" customHeight="1"/>
+    <row r="196" ht="16.5" customHeight="1"/>
+    <row r="207" ht="16.5" customHeight="1"/>
     <row r="208" ht="16.5" customHeight="1"/>
-    <row r="209" ht="16.5" customHeight="1"/>
+    <row r="212" ht="16.5" customHeight="1"/>
     <row r="213" ht="16.5" customHeight="1"/>
-    <row r="214" ht="16.5" customHeight="1"/>
-    <row r="216" ht="16.5" customHeight="1"/>
+    <row r="215" ht="16.5" customHeight="1"/>
+    <row r="223" ht="16.5" customHeight="1"/>
     <row r="224" ht="16.5" customHeight="1"/>
     <row r="225" ht="16.5" customHeight="1"/>
     <row r="226" ht="16.5" customHeight="1"/>
     <row r="227" ht="16.5" customHeight="1"/>
-    <row r="228" ht="16.5" customHeight="1"/>
-    <row r="231" ht="16.5" customHeight="1"/>
+    <row r="230" ht="16.5" customHeight="1"/>
+    <row r="240" ht="16.5" customHeight="1"/>
     <row r="241" ht="16.5" customHeight="1"/>
-    <row r="242" ht="16.5" customHeight="1"/>
-    <row r="244" ht="16.5" customHeight="1"/>
-    <row r="246" ht="16.5" customHeight="1"/>
-    <row r="249" ht="16.5" customHeight="1"/>
+    <row r="243" ht="16.5" customHeight="1"/>
+    <row r="245" ht="16.5" customHeight="1"/>
+    <row r="248" ht="16.5" customHeight="1"/>
+    <row r="251" ht="16.5" customHeight="1"/>
     <row r="252" ht="16.5" customHeight="1"/>
-    <row r="253" ht="16.5" customHeight="1"/>
-    <row r="255" ht="16.5" customHeight="1"/>
+    <row r="254" ht="16.5" customHeight="1"/>
+    <row r="260" ht="16.5" customHeight="1"/>
     <row r="261" ht="16.5" customHeight="1"/>
     <row r="262" ht="16.5" customHeight="1"/>
-    <row r="263" ht="16.5" customHeight="1"/>
+    <row r="266" ht="16.5" customHeight="1"/>
     <row r="267" ht="16.5" customHeight="1"/>
-    <row r="268" ht="16.5" customHeight="1"/>
+    <row r="271" ht="16.5" customHeight="1"/>
     <row r="272" ht="16.5" customHeight="1"/>
     <row r="273" ht="16.5" customHeight="1"/>
     <row r="274" ht="16.5" customHeight="1"/>
-    <row r="275" ht="16.5" customHeight="1"/>
+    <row r="281" ht="16.5" customHeight="1"/>
     <row r="282" ht="16.5" customHeight="1"/>
-    <row r="283" ht="16.5" customHeight="1"/>
-    <row r="286" ht="16.5" customHeight="1"/>
+    <row r="285" ht="16.5" customHeight="1"/>
+    <row r="287" ht="16.5" customHeight="1"/>
     <row r="288" ht="16.5" customHeight="1"/>
-    <row r="289" ht="16.5" customHeight="1"/>
-    <row r="291" ht="16.5" customHeight="1"/>
+    <row r="290" ht="16.5" customHeight="1"/>
+    <row r="298" ht="16.5" customHeight="1"/>
     <row r="299" ht="16.5" customHeight="1"/>
-    <row r="300" ht="16.5" customHeight="1"/>
-    <row r="302" ht="16.5" customHeight="1"/>
+    <row r="301" ht="16.5" customHeight="1"/>
+    <row r="303" ht="16.5" customHeight="1"/>
     <row r="304" ht="16.5" customHeight="1"/>
     <row r="305" ht="16.5" customHeight="1"/>
     <row r="306" ht="16.5" customHeight="1"/>
     <row r="307" ht="16.5" customHeight="1"/>
     <row r="308" ht="16.5" customHeight="1"/>
-    <row r="309" ht="16.5" customHeight="1"/>
+    <row r="310" ht="16.5" customHeight="1"/>
     <row r="311" ht="16.5" customHeight="1"/>
     <row r="312" ht="16.5" customHeight="1"/>
-    <row r="313" ht="16.5" customHeight="1"/>
-    <row r="320" ht="16.5" customHeight="1"/>
+    <row r="319" ht="16.5" customHeight="1"/>
+    <row r="322" ht="16.5" customHeight="1"/>
     <row r="323" ht="16.5" customHeight="1"/>
     <row r="324" ht="16.5" customHeight="1"/>
     <row r="325" ht="16.5" customHeight="1"/>
@@ -2575,10 +2553,9 @@
     <row r="328" ht="16.5" customHeight="1"/>
     <row r="329" ht="16.5" customHeight="1"/>
     <row r="330" ht="16.5" customHeight="1"/>
-    <row r="331" ht="16.5" customHeight="1"/>
+    <row r="333" ht="16.5" customHeight="1"/>
     <row r="334" ht="16.5" customHeight="1"/>
     <row r="335" ht="16.5" customHeight="1"/>
-    <row r="336" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
